--- a/data/19-08-2025-ofc_cables-export.xlsx
+++ b/data/19-08-2025-ofc_cables-export.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="891">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">945ed62e-79a8-48f3-a71a-34b54b1006ee</t>
   </si>
   <si>
-    <t xml:space="preserve">BARENDRA PARA BTS LEAD IN</t>
+    <t xml:space="preserve">BARENDRA PARA BTS</t>
   </si>
   <si>
     <t xml:space="preserve">990500638541-0</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">e104e342-b214-4f32-8be4-07ca1a39e3a5</t>
   </si>
   <si>
-    <t xml:space="preserve">BARUIPUR - PADMAPUKUR</t>
+    <t xml:space="preserve">BARUIPUR – PADMAPUKUR PCM</t>
   </si>
   <si>
     <t xml:space="preserve">e90acc65-9969-4715-b35c-d105727da263</t>
@@ -1235,6 +1235,12 @@
     <t xml:space="preserve">MALLICKPUR ROAD</t>
   </si>
   <si>
+    <t xml:space="preserve">bc425e08-3d64-4e72-8d42-4a8bf9187f5e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJC BORAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">e1e3119d-5963-4202-9e63-3537e7ef7ffb</t>
   </si>
   <si>
@@ -1460,7 +1466,7 @@
     <t xml:space="preserve">6200287c-2244-4b89-ba91-932301dbcfd7</t>
   </si>
   <si>
-    <t xml:space="preserve">UTTAR KALYANPUR</t>
+    <t xml:space="preserve">UTTAR KALYANPUR BTS</t>
   </si>
   <si>
     <t xml:space="preserve">3fab0e8c-76be-4156-92c7-adf052a70c23</t>
@@ -1592,9 +1598,6 @@
     <t xml:space="preserve">aeaa6688-ca5f-4a9d-9d72-28ac13063d15</t>
   </si>
   <si>
-    <t xml:space="preserve">BARENDRA_PARA</t>
-  </si>
-  <si>
     <t xml:space="preserve">89844e00-2f3d-4c4c-9c1d-56d609a672e5</t>
   </si>
   <si>
@@ -1670,6 +1673,12 @@
     <t xml:space="preserve">CHANDPUR KALIKAPUR</t>
   </si>
   <si>
+    <t xml:space="preserve">61e86d59-3750-4828-a290-8c4ec7573553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJC CHAMPAHATI</t>
+  </si>
+  <si>
     <t xml:space="preserve">e314f7c3-2847-4c0e-9e8c-b61288e4b27d</t>
   </si>
   <si>
@@ -2264,18 +2273,6 @@
     <t xml:space="preserve">BJC BLUESKY PARTY OFFICE JC</t>
   </si>
   <si>
-    <t xml:space="preserve">bc425e08-3d64-4e72-8d42-4a8bf9187f5e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJC BORAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61e86d59-3750-4828-a290-8c4ec7573553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJC CHAMPAHATI</t>
-  </si>
-  <si>
     <t xml:space="preserve">7c4afc1c-7c86-41ac-a829-73accff18181</t>
   </si>
   <si>
@@ -2679,6 +2676,24 @@
   </si>
   <si>
     <t xml:space="preserve">AERIAL JC NEAR BARUIPUR TRAFFIC CONTROL OFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7184883c-d5f4-42c8-9c21-6b25f218b399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR ROAD BAZAR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4bd7a86e-1486-4325-8324-899a0d370abb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANTALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">617ca0f1-1fd1-4c21-a745-a881a9a5df22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR BAZAR BTS</t>
   </si>
 </sst>
 </file>
@@ -2727,7 +2742,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2740,8 +2755,14 @@
         <bgColor rgb="FF0066CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2761,6 +2782,20 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2789,7 +2824,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2815,6 +2850,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2847,7 +2906,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFF8F9FA"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -3072,7 +3131,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3456,15 +3515,15 @@
       </c>
       <c r="F6" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X6)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v/>
+        <v>SONARPUR ROAD BAZAR BTS</v>
       </c>
       <c r="G6" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X6, Sheet1!$B:$B, 0)), "")</f>
-        <v/>
+        <v>7184883c-d5f4-42c8-9c21-6b25f218b399</v>
       </c>
       <c r="H6" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X6)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v/>
+        <v>f45e7454-2b12-4607-886b-f463b56fab98</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>24</v>
@@ -3581,15 +3640,15 @@
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W8)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v/>
+        <v>BANTALA</v>
       </c>
       <c r="D8" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W8, Sheet1!$B:$B, 0)), "")</f>
-        <v/>
+        <v>4bd7a86e-1486-4325-8324-899a0d370abb</v>
       </c>
       <c r="E8" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W8)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v/>
+        <v>262e50f3-bef2-403c-85dc-f6d02b8a9ded</v>
       </c>
       <c r="F8" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X8)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -3642,15 +3701,15 @@
       </c>
       <c r="C9" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W9)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v/>
+        <v>BARENDRA PARA BTS</v>
       </c>
       <c r="D9" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W9, Sheet1!$B:$B, 0)), "")</f>
-        <v/>
+        <v>aeaa6688-ca5f-4a9d-9d72-28ac13063d15</v>
       </c>
       <c r="E9" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W9)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v/>
+        <v>f45e7454-2b12-4607-886b-f463b56fab98</v>
       </c>
       <c r="F9" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X9)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -3687,7 +3746,7 @@
       </c>
       <c r="W9" s="5" t="str">
         <f aca="false">IF(    ISERROR(FIND("-",SUBSTITUTE(SUBSTITUTE(B9,"–","-"),"—","-"))),    TRIM(B9),    _xlfn.ORG.LIBREOFFICE.REGEX(       TRIM(LEFT(SUBSTITUTE(SUBSTITUTE(B9,"–","-"),"—","-"),       FIND("-",SUBSTITUTE(SUBSTITUTE(B9,"–","-"),"—","-"))-1)),       "[-\s]*\d+$",       ""    ) )</f>
-        <v>BARENDRA PARA BTS LEAD IN</v>
+        <v>BARENDRA PARA BTS</v>
       </c>
       <c r="X9" s="1" t="str">
         <f aca="false">IF(    ISERROR(FIND("-",SUBSTITUTE(SUBSTITUTE(B9,"–","-"),"—","-"))),    "",    _xlfn.ORG.LIBREOFFICE.REGEX(       TRIM(MID(SUBSTITUTE(SUBSTITUTE(B9,"–","-"),"—","-"),       FIND("-",SUBSTITUTE(SUBSTITUTE(B9,"–","-"),"—","-"))+1,99)),       "[-\s]*\d+$",       ""    ) )</f>
@@ -3849,15 +3908,15 @@
       </c>
       <c r="F12" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X12)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v/>
+        <v>PADMAPUKUR PCM</v>
       </c>
       <c r="G12" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X12, Sheet1!$B:$B, 0)), "")</f>
-        <v/>
+        <v>b23799ac-04a7-4a2c-a6ce-2676971cbc2f</v>
       </c>
       <c r="H12" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X12)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v/>
+        <v>262e50f3-bef2-403c-85dc-f6d02b8a9ded</v>
       </c>
       <c r="K12" s="1" t="n">
         <v>12</v>
@@ -3886,7 +3945,7 @@
       </c>
       <c r="X12" s="1" t="str">
         <f aca="false">IF(    ISERROR(FIND("-",SUBSTITUTE(SUBSTITUTE(B12,"–","-"),"—","-"))),    "",    _xlfn.ORG.LIBREOFFICE.REGEX(       TRIM(MID(SUBSTITUTE(SUBSTITUTE(B12,"–","-"),"—","-"),       FIND("-",SUBSTITUTE(SUBSTITUTE(B12,"–","-"),"—","-"))+1,99)),       "[-\s]*\d+$",       ""    ) )</f>
-        <v>PADMAPUKUR</v>
+        <v>PADMAPUKUR PCM</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4035,27 +4094,27 @@
       </c>
       <c r="C15" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W15)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v/>
+        <v>BARUIPUR BAZAR BTS</v>
       </c>
       <c r="D15" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W15, Sheet1!$B:$B, 0)), "")</f>
-        <v/>
+        <v>617ca0f1-1fd1-4c21-a745-a881a9a5df22</v>
       </c>
       <c r="E15" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W15)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v/>
+        <v>4bc2a086-b131-47e1-9c20-f10650c0196d</v>
       </c>
       <c r="F15" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X15)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v/>
+        <v>UTTAR KALYANPUR BTS</v>
       </c>
       <c r="G15" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X15, Sheet1!$B:$B, 0)), "")</f>
-        <v/>
+        <v>6200287c-2244-4b89-ba91-932301dbcfd7</v>
       </c>
       <c r="H15" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X15)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v/>
+        <v>f45e7454-2b12-4607-886b-f463b56fab98</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>24</v>
@@ -11537,10 +11596,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C292"/>
+  <dimension ref="A1:C295"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A256" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F279" activeCellId="0" sqref="F279"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A200" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B219" activeCellId="0" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11551,3215 +11610,3248 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="10" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="8" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C40" s="6" t="s">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C41" s="6" t="s">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C42" s="6" t="s">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C43" s="6" t="s">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C44" s="6" t="s">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C45" s="6" t="s">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C46" s="6" t="s">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C47" s="6" t="s">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C48" s="6" t="s">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C49" s="6" t="s">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C50" s="6" t="s">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C51" s="6" t="s">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C52" s="6" t="s">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C53" s="6" t="s">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C54" s="6" t="s">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C55" s="6" t="s">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C56" s="6" t="s">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="7" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="C57" s="6" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C58" s="6" t="s">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C59" s="6" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C60" s="6" t="s">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C61" s="6" t="s">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C62" s="6" t="s">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C63" s="6" t="s">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C64" s="6" t="s">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C65" s="6" t="s">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C66" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C66" s="6" t="s">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C67" s="6" t="s">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C68" s="6" t="s">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C69" s="6" t="s">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C70" s="6" t="s">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C71" s="6" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C72" s="6" t="s">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C73" s="6" t="s">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C74" s="6" t="s">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B75" s="1" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="B178" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C178" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="C196" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C76" s="6" t="s">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="9" t="s">
+        <v>710</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="C210" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C77" s="6" t="s">
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="B211" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="C211" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C78" s="6" t="s">
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="C212" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C102" s="6" t="s">
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="C213" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C104" s="6" t="s">
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C214" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C105" s="6" t="s">
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="C215" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C106" s="6" t="s">
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="C216" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C107" s="6" t="s">
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="9" t="s">
+        <v>734</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="C222" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="C230" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="C232" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="C234" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="C236" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="B239" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="9" t="s">
+        <v>810</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>823</v>
+      </c>
+      <c r="C262" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="B264" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="C266" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="9" t="s">
+        <v>834</v>
+      </c>
+      <c r="B268" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="C268" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="C270" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>841</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="B272" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="C272" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="B274" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>852</v>
+      </c>
+      <c r="C276" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="C278" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="B280" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="C280" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="B282" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="C282" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="C284" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="C286" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="B288" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="C288" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="B290" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="C290" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="B292" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C139" s="6" t="s">
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="C238" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="C262" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="C263" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="C264" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="C270" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="C271" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="C272" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="C273" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="C274" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C277" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="C280" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="C281" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="C286" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="C287" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="C288" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="C289" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="C290" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="C291" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="C292" s="6" t="s">
-        <v>401</v>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/19-08-2025-ofc_cables-export.xlsx
+++ b/data/19-08-2025-ofc_cables-export.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ofc_cables" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="862">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -1340,402 +1340,366 @@
     <t xml:space="preserve">SONARPUR Exch</t>
   </si>
   <si>
-    <t xml:space="preserve">69b3cd60-ce89-43b4-ac1f-4671fc02d081</t>
+    <t xml:space="preserve">04c66bb4-240d-4974-af7f-e94c9d0a379e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonarpur Badamtala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4b2f4eb6-a531-4e55-ba6d-fffb7cc1257b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR BAZAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60cfbcc5-26b9-4d7c-a8e9-02cc56010f19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR KURIGACHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f7a8effa-cc27-4cc9-9afd-d587f225f8e2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR GHASIARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4c8710d0-1503-43b9-b595-fa876c65f61d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f8cf599c-f6af-4c1d-947b-a77910f0836d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR TEGHARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cb8918d3-ef72-4754-9c68-876edf4ae1d3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR NATUNPALLY (GHASIRA SCHOOL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53797415-2c34-4f84-a415-404932486c96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR SOUTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7cfda4ed-503a-4400-97bc-89740b0b020d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUTH GOBINDAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224bdc13-efc2-474b-a593-6a33dec8f9f2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUTH GARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b1f6f204-2a68-4fba-af6e-a86fca1cd627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHAS GRAM BANK PLOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eb8587c0-d977-46d7-88d9-149ebb865000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHAS GRAM RAIL GATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c38d739c-c0b8-40ed-b18f-b58a59647962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHASGRAM PETUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">857fb335-66a4-4e7d-81aa-f8904e6b9633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHASGRAM (near power GRID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bf9807b4-3e97-4de5-a8be-d99260d257ae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHASHGRAM KODALIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f7181c00-099b-4239-aeeb-e9f9c1605b12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBHASGRAM PANCHGHARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2afba6a3-c0ba-480f-afc3-a66d8135ee11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJC GAZIPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">760ce3f8-01e4-427c-b66d-67817873f9d8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harinavi -B3(CAT2) /1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9b35ad96-4bf3-4fca-806a-c5180a84ceda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONARPUR MILANPALLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6200287c-2244-4b89-ba91-932301dbcfd7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTTAR KALYANPUR BTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3fab0e8c-76be-4156-92c7-adf052a70c23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDAYANPALLY RAKSHIT MORE (BORAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ff1282ff-ccbf-43f3-b4f3-345d233bec43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEST KALYANPUR CHANDIPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2080869e-8b77-4270-972d-9c50f9752c97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamalgazi BTS-A3(CAT2) /1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60b37070-b6d7-4397-a5f7-ab1c4ec19eab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1cb55b40-a272-485c-80df-5c8408f9ee57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonarpur -A4(CAT2) /1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5d21f7d2-4271-4b65-8a33-15c8dbdb9999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13f68714-3cee-4c47-9606-c72bdf03df56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5661ab3b-2703-4381-83ad-5a163c1dd73c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8a1a9216-ba88-4783-8ec9-294a7f369e6a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ce36a125-1402-4b65-b3f5-5e7245f6e46a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">285653b9-e924-4b10-a5fe-27f8fa235936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b8e7cd07-5b44-4bf1-8a1a-4ca06ea4427d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66535bc7-c150-490a-a37d-8d3dd8a3bf41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a44979b9-a7bc-4947-8a9f-f2a0bdc08e48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ebb37893-abf1-4b24-8c5d-b3e33cceeb14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0d4f46f9-667b-4efb-9066-76fcbd609ad5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0cd68185-cc60-403c-ac6e-9b995962c24b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">455df366-a122-4b04-87b2-921cf72d270b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boral ROU-A3(CAT2)/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35c0b99f-04ba-4fd9-bd78-78e0a3827ddf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harinavi -B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1b5554c5-5a04-4cf4-a488-f4d5a63fa149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e04f56b4-7930-4477-bd1d-510670185b94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KALYANPUR STATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26784392-9af2-47eb-9171-bb0b5d96ee27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baruipur Phultala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42cd6bb1-697d-4093-82d6-88a7d6e3c87f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BADE HOOGHLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aeaa6688-ca5f-4a9d-9d72-28ac13063d15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89844e00-2f3d-4c4c-9c1d-56d609a672e5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR EXCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8f15afae-1c73-442a-a159-5488d022008e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR EXCH @2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">876847d1-9e49-4c81-9716-c3b188826ce1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df1dcb75-c73c-49e0-8763-d2df4b0a8817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baruipur Kalyanpur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6f41170b-1bdb-4007-98a4-a5f7cd1ab418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR MOTHERHUT I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dea39efc-21b8-4bf1-9254-f53c958b6378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARUIPUR MOTHERHUT II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bdd9d674-f64e-472b-8022-6203c4f4e4a2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAJPUR MORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7b2e1757-491e-41ad-8199-b1901d7ee198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRIKHANDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6478f603-3d06-4538-8e5e-961c140b02ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kheyadaha-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de9ccacb-2080-400e-8c57-2e2cf729f724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23494c62-bda0-4b17-9d66-af14c853a1d6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORAL NATUN HUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25b76a23-db94-43ae-a7bc-aed8a0a84f2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAHMAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33b19f80-b548-4a7a-927e-14590fb1172d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANDPUR KALIKAPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61e86d59-3750-4828-a290-8c4ec7573553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BJC CHAMPAHATI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e314f7c3-2847-4c0e-9e8c-b61288e4b27d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOWHATI POLEHAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45b41c2d-54cf-42a9-b134-239d96bb7c5a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAKSHIN KALYANPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0237bbb2-4f2f-409d-b7d6-1fda8fdc8578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAKSHIN BONHOOGHLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93d9b329-2382-443a-949d-ba8225db474c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALANCHA_CHANDPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247d7fc9-fd0d-4136-9185-c3d81fb88fe5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eadebe7a-8f33-4cae-b4a3-c3459e207835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DINGAL POTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296383f0-9826-45cf-8934-b5312fedf472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARTABAD KANDARPUR SAHAPARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a591e8fb-a657-4146-866e-5553edf6681a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARTABAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77ffbe51-7aee-49e2-9ada-2ed98055ceb3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poleghat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ebd96b33-8ed2-479d-a8eb-dcdaf9fd31da</t>
   </si>
   <si>
     <t xml:space="preserve">SITAKUNDU</t>
   </si>
   <si>
-    <t xml:space="preserve">f6cdce1d-fe11-4d40-8866-c509307f6150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04c66bb4-240d-4974-af7f-e94c9d0a379e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonarpur Badamtala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4b2f4eb6-a531-4e55-ba6d-fffb7cc1257b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SONARPUR BAZAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60cfbcc5-26b9-4d7c-a8e9-02cc56010f19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SONARPUR KURIGACHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f7a8effa-cc27-4cc9-9afd-d587f225f8e2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SONARPUR GHASIARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4c8710d0-1503-43b9-b595-fa876c65f61d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SONARPUR II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f8cf599c-f6af-4c1d-947b-a77910f0836d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SONARPUR TEGHARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cb8918d3-ef72-4754-9c68-876edf4ae1d3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SONARPUR NATUNPALLY (GHASIRA SCHOOL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53797415-2c34-4f84-a415-404932486c96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SONARPUR SOUTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7cfda4ed-503a-4400-97bc-89740b0b020d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOUTH GOBINDAPUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224bdc13-efc2-474b-a593-6a33dec8f9f2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOUTH GARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b1f6f204-2a68-4fba-af6e-a86fca1cd627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBHAS GRAM BANK PLOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eb8587c0-d977-46d7-88d9-149ebb865000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBHAS GRAM RAIL GATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c38d739c-c0b8-40ed-b18f-b58a59647962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBHASGRAM PETUA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">857fb335-66a4-4e7d-81aa-f8904e6b9633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBHASGRAM (near power GRID)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bf9807b4-3e97-4de5-a8be-d99260d257ae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBHASHGRAM KODALIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f7181c00-099b-4239-aeeb-e9f9c1605b12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBHASGRAM PANCHGHARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2afba6a3-c0ba-480f-afc3-a66d8135ee11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJC GAZIPUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">760ce3f8-01e4-427c-b66d-67817873f9d8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harinavi -B3(CAT2) /1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9b35ad96-4bf3-4fca-806a-c5180a84ceda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SONARPUR MILANPALLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6200287c-2244-4b89-ba91-932301dbcfd7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UTTAR KALYANPUR BTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3fab0e8c-76be-4156-92c7-adf052a70c23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UDAYANPALLY RAKSHIT MORE (BORAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ff1282ff-ccbf-43f3-b4f3-345d233bec43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEST KALYANPUR CHANDIPUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2080869e-8b77-4270-972d-9c50f9752c97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamalgazi BTS-A3(CAT2) /1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60b37070-b6d7-4397-a5f7-ab1c4ec19eab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1cb55b40-a272-485c-80df-5c8408f9ee57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonarpur -A4(CAT2) /1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5d21f7d2-4271-4b65-8a33-15c8dbdb9999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13f68714-3cee-4c47-9606-c72bdf03df56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5661ab3b-2703-4381-83ad-5a163c1dd73c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8a1a9216-ba88-4783-8ec9-294a7f369e6a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ce36a125-1402-4b65-b3f5-5e7245f6e46a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">285653b9-e924-4b10-a5fe-27f8fa235936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b8e7cd07-5b44-4bf1-8a1a-4ca06ea4427d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66535bc7-c150-490a-a37d-8d3dd8a3bf41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a44979b9-a7bc-4947-8a9f-f2a0bdc08e48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2af79bdf-4201-4b16-8d57-fb484e86fac2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SONARPUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">376e5b44-4294-4b61-a411-2df818899fd0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MISSION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebb37893-abf1-4b24-8c5d-b3e33cceeb14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0d4f46f9-667b-4efb-9066-76fcbd609ad5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0cd68185-cc60-403c-ac6e-9b995962c24b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">455df366-a122-4b04-87b2-921cf72d270b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boral ROU-A3(CAT2)/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45f1a024-b36f-465a-8896-125399380cb6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e010fab7-5e39-4185-910e-a04f1d7de825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35c0b99f-04ba-4fd9-bd78-78e0a3827ddf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harinavi -B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1b5554c5-5a04-4cf4-a488-f4d5a63fa149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b5bfbef5-356c-499b-ad2b-351b7ed6a845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARUIPUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e04f56b4-7930-4477-bd1d-510670185b94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KALYANPUR STATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dd61006f-f07c-4a80-b5bf-1588e7ca79b6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAMALGAZI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26784392-9af2-47eb-9171-bb0b5d96ee27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baruipur Phultala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42cd6bb1-697d-4093-82d6-88a7d6e3c87f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BADE HOOGHLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aeaa6688-ca5f-4a9d-9d72-28ac13063d15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89844e00-2f3d-4c4c-9c1d-56d609a672e5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARUIPUR EXCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8f15afae-1c73-442a-a159-5488d022008e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARUIPUR EXCH @2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">876847d1-9e49-4c81-9716-c3b188826ce1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARUIPUR III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df1dcb75-c73c-49e0-8763-d2df4b0a8817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baruipur Kalyanpur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6f41170b-1bdb-4007-98a4-a5f7cd1ab418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARUIPUR MOTHERHUT I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dea39efc-21b8-4bf1-9254-f53c958b6378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARUIPUR MOTHERHUT II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bdd9d674-f64e-472b-8022-6203c4f4e4a2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAJPUR MORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7b2e1757-491e-41ad-8199-b1901d7ee198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRIKHANDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6478f603-3d06-4538-8e5e-961c140b02ba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kheyadaha-II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de9ccacb-2080-400e-8c57-2e2cf729f724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23494c62-bda0-4b17-9d66-af14c853a1d6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORAL NATUN HUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25b76a23-db94-43ae-a7bc-aed8a0a84f2d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAHMAPUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33b19f80-b548-4a7a-927e-14590fb1172d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHANDPUR KALIKAPUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61e86d59-3750-4828-a290-8c4ec7573553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJC CHAMPAHATI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e314f7c3-2847-4c0e-9e8c-b61288e4b27d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHOWHATI POLEHAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45b41c2d-54cf-42a9-b134-239d96bb7c5a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAKSHIN KALYANPUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0237bbb2-4f2f-409d-b7d6-1fda8fdc8578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAKSHIN BONHOOGHLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93d9b329-2382-443a-949d-ba8225db474c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MALANCHA_CHANDPUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247d7fc9-fd0d-4136-9185-c3d81fb88fe5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eadebe7a-8f33-4cae-b4a3-c3459e207835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DINGAL POTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">296383f0-9826-45cf-8934-b5312fedf472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FARTABAD KANDARPUR SAHAPARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a591e8fb-a657-4146-866e-5553edf6681a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FARTABAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77ffbe51-7aee-49e2-9ada-2ed98055ceb3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poleghat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebd96b33-8ed2-479d-a8eb-dcdaf9fd31da</t>
-  </si>
-  <si>
     <t xml:space="preserve">ad33549a-4024-4300-b960-46da70eeb159</t>
   </si>
   <si>
@@ -1778,19 +1742,7 @@
     <t xml:space="preserve">3de9b5ea-9107-4cf9-82fa-cdc64498c89c</t>
   </si>
   <si>
-    <t xml:space="preserve">A.P NAGAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54bc2231-880b-4ba6-ba6e-4d3cb594052b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP NAGAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a9ca2596-ae80-4c6b-92f1-b197e98dcaea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAISHNABGHATA</t>
+    <t xml:space="preserve">AP NAGAR BTS</t>
   </si>
   <si>
     <t xml:space="preserve">ff223ce7-f437-42d7-9b10-024ae0ec93bd</t>
@@ -2054,46 +2006,7 @@
     <t xml:space="preserve">d749692f-5147-49b5-b1cf-8be443ad2de2</t>
   </si>
   <si>
-    <t xml:space="preserve">4655a834-c64f-48c8-90a0-6e4f9654acf1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BORAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10b4b8cd-7f82-4162-a0d5-a37bff9d9049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">badf80cb-ccc2-47f9-8dc4-82e32733b251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8a15ae36-37a3-416d-8a6b-3e6159152611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e17a2fef-f3f9-4775-b095-a8ec38ead469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">781a30c9-f5db-4af4-ac1d-f279ad2eff80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HHC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41355205-b6db-4d38-bebf-9f0cf2998f64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JADAVPUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aafe2bfb-6e18-4053-97b5-bf7fb9992fcb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KALYANPUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">282e9038-f6a1-4393-bd29-b4591d88e7fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34e4a5d6-7943-42c8-809d-f7b113a73be1</t>
+    <t xml:space="preserve">n</t>
   </si>
   <si>
     <t xml:space="preserve">Sonarpur-II</t>
@@ -2853,27 +2766,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3128,10 +3041,10 @@
   </sheetPr>
   <dimension ref="A1:X129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3302,15 +3215,15 @@
       </c>
       <c r="C3" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W3)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>AP NAGAR</v>
+        <v/>
       </c>
       <c r="D3" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W3, Sheet1!$B:$B, 0)), "")</f>
-        <v>54bc2231-880b-4ba6-ba6e-4d3cb594052b</v>
+        <v/>
       </c>
       <c r="E3" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W3)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F3" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X3)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -3318,11 +3231,11 @@
       </c>
       <c r="G3" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X3, Sheet1!$B:$B, 0)), "")</f>
-        <v>69b3cd60-ce89-43b4-ac1f-4671fc02d081</v>
+        <v>ebd96b33-8ed2-479d-a8eb-dcdaf9fd31da</v>
       </c>
       <c r="H3" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X3)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v>f45e7454-2b12-4607-886b-f463b56fab98</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>24</v>
@@ -3369,15 +3282,15 @@
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W4)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>AP NAGAR</v>
+        <v/>
       </c>
       <c r="D4" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W4, Sheet1!$B:$B, 0)), "")</f>
-        <v>54bc2231-880b-4ba6-ba6e-4d3cb594052b</v>
+        <v/>
       </c>
       <c r="E4" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W4)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F4" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X4)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -3436,27 +3349,27 @@
       </c>
       <c r="C5" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W5)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>AP NAGAR</v>
+        <v/>
       </c>
       <c r="D5" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W5, Sheet1!$B:$B, 0)), "")</f>
-        <v>54bc2231-880b-4ba6-ba6e-4d3cb594052b</v>
+        <v/>
       </c>
       <c r="E5" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W5)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F5" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X5)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>SONARPUR</v>
+        <v/>
       </c>
       <c r="G5" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X5, Sheet1!$B:$B, 0)), "")</f>
-        <v>2af79bdf-4201-4b16-8d57-fb484e86fac2</v>
+        <v/>
       </c>
       <c r="H5" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X5)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K5" s="1" t="n">
         <v>24</v>
@@ -3503,15 +3416,15 @@
       </c>
       <c r="C6" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W6)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>AP NAGAR</v>
+        <v/>
       </c>
       <c r="D6" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W6, Sheet1!$B:$B, 0)), "")</f>
-        <v>54bc2231-880b-4ba6-ba6e-4d3cb594052b</v>
+        <v/>
       </c>
       <c r="E6" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W6)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F6" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X6)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -3573,15 +3486,15 @@
       </c>
       <c r="C7" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W7)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>AP NAGAR</v>
+        <v/>
       </c>
       <c r="D7" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W7, Sheet1!$B:$B, 0)), "")</f>
-        <v>54bc2231-880b-4ba6-ba6e-4d3cb594052b</v>
+        <v/>
       </c>
       <c r="E7" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W7)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F7" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X7)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -3652,15 +3565,15 @@
       </c>
       <c r="F8" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X8)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>SONARPUR</v>
+        <v/>
       </c>
       <c r="G8" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X8, Sheet1!$B:$B, 0)), "")</f>
-        <v>2af79bdf-4201-4b16-8d57-fb484e86fac2</v>
+        <v/>
       </c>
       <c r="H8" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X8)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K8" s="1" t="n">
         <v>24</v>
@@ -3762,15 +3675,15 @@
       </c>
       <c r="C10" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W10)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>BARUIPUR</v>
+        <v/>
       </c>
       <c r="D10" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W10, Sheet1!$B:$B, 0)), "")</f>
-        <v>b5bfbef5-356c-499b-ad2b-351b7ed6a845</v>
+        <v/>
       </c>
       <c r="E10" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W10)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F10" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X10)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -3829,27 +3742,27 @@
       </c>
       <c r="C11" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W11)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>BARUIPUR</v>
+        <v/>
       </c>
       <c r="D11" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W11, Sheet1!$B:$B, 0)), "")</f>
-        <v>b5bfbef5-356c-499b-ad2b-351b7ed6a845</v>
+        <v/>
       </c>
       <c r="E11" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W11)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F11" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X11)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>KALYANPUR</v>
+        <v/>
       </c>
       <c r="G11" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X11, Sheet1!$B:$B, 0)), "")</f>
-        <v>aafe2bfb-6e18-4053-97b5-bf7fb9992fcb</v>
+        <v/>
       </c>
       <c r="H11" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X11)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K11" s="1" t="n">
         <v>24</v>
@@ -3896,15 +3809,15 @@
       </c>
       <c r="C12" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W12)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>BARUIPUR</v>
+        <v/>
       </c>
       <c r="D12" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W12, Sheet1!$B:$B, 0)), "")</f>
-        <v>b5bfbef5-356c-499b-ad2b-351b7ed6a845</v>
+        <v/>
       </c>
       <c r="E12" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W12)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F12" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X12)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -3957,15 +3870,15 @@
       </c>
       <c r="C13" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W13)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>BARUIPUR</v>
+        <v/>
       </c>
       <c r="D13" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W13, Sheet1!$B:$B, 0)), "")</f>
-        <v>b5bfbef5-356c-499b-ad2b-351b7ed6a845</v>
+        <v/>
       </c>
       <c r="E13" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W13)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F13" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X13)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -3973,11 +3886,11 @@
       </c>
       <c r="G13" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X13, Sheet1!$B:$B, 0)), "")</f>
-        <v>69b3cd60-ce89-43b4-ac1f-4671fc02d081</v>
+        <v>ebd96b33-8ed2-479d-a8eb-dcdaf9fd31da</v>
       </c>
       <c r="H13" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X13)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v>f45e7454-2b12-4607-886b-f463b56fab98</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>24</v>
@@ -4024,15 +3937,15 @@
       </c>
       <c r="C14" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W14)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>BARUIPUR</v>
+        <v/>
       </c>
       <c r="D14" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W14, Sheet1!$B:$B, 0)), "")</f>
-        <v>b5bfbef5-356c-499b-ad2b-351b7ed6a845</v>
+        <v/>
       </c>
       <c r="E14" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W14)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F14" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X14)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -4731,15 +4644,15 @@
       </c>
       <c r="C25" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W25)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>BARUIPUR</v>
+        <v/>
       </c>
       <c r="D25" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W25, Sheet1!$B:$B, 0)), "")</f>
-        <v>b5bfbef5-356c-499b-ad2b-351b7ed6a845</v>
+        <v/>
       </c>
       <c r="E25" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W25)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F25" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X25)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -5645,15 +5558,15 @@
       </c>
       <c r="C39" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W39)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>BORAL</v>
+        <v/>
       </c>
       <c r="D39" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W39, Sheet1!$B:$B, 0)), "")</f>
-        <v>4655a834-c64f-48c8-90a0-6e4f9654acf1</v>
+        <v/>
       </c>
       <c r="E39" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W39)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F39" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X39)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -5712,15 +5625,15 @@
       </c>
       <c r="C40" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W40)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>BORAL</v>
+        <v/>
       </c>
       <c r="D40" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W40, Sheet1!$B:$B, 0)), "")</f>
-        <v>4655a834-c64f-48c8-90a0-6e4f9654acf1</v>
+        <v/>
       </c>
       <c r="E40" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W40)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F40" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X40)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -5779,27 +5692,27 @@
       </c>
       <c r="C41" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W41)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>BORAL</v>
+        <v/>
       </c>
       <c r="D41" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W41, Sheet1!$B:$B, 0)), "")</f>
-        <v>4655a834-c64f-48c8-90a0-6e4f9654acf1</v>
+        <v/>
       </c>
       <c r="E41" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W41)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F41" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X41)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>KAMALGAZI</v>
+        <v/>
       </c>
       <c r="G41" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X41, Sheet1!$B:$B, 0)), "")</f>
-        <v>dd61006f-f07c-4a80-b5bf-1588e7ca79b6</v>
+        <v/>
       </c>
       <c r="H41" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X41)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K41" s="1" t="n">
         <v>48</v>
@@ -5846,15 +5759,15 @@
       </c>
       <c r="C42" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W42)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>BORAL</v>
+        <v/>
       </c>
       <c r="D42" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W42, Sheet1!$B:$B, 0)), "")</f>
-        <v>4655a834-c64f-48c8-90a0-6e4f9654acf1</v>
+        <v/>
       </c>
       <c r="E42" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W42)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F42" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X42)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -5913,15 +5826,15 @@
       </c>
       <c r="C43" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W43)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>BORAL</v>
+        <v/>
       </c>
       <c r="D43" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W43, Sheet1!$B:$B, 0)), "")</f>
-        <v>4655a834-c64f-48c8-90a0-6e4f9654acf1</v>
+        <v/>
       </c>
       <c r="E43" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W43)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F43" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X43)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -5980,15 +5893,15 @@
       </c>
       <c r="C44" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W44)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>BORAL</v>
+        <v/>
       </c>
       <c r="D44" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W44, Sheet1!$B:$B, 0)), "")</f>
-        <v>4655a834-c64f-48c8-90a0-6e4f9654acf1</v>
+        <v/>
       </c>
       <c r="E44" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W44)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F44" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X44)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -6047,15 +5960,15 @@
       </c>
       <c r="C45" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W45)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>BORAL</v>
+        <v/>
       </c>
       <c r="D45" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W45, Sheet1!$B:$B, 0)), "")</f>
-        <v>4655a834-c64f-48c8-90a0-6e4f9654acf1</v>
+        <v/>
       </c>
       <c r="E45" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W45)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F45" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X45)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -6166,15 +6079,15 @@
       </c>
       <c r="C47" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W47)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>BORAL</v>
+        <v/>
       </c>
       <c r="D47" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W47, Sheet1!$B:$B, 0)), "")</f>
-        <v>4655a834-c64f-48c8-90a0-6e4f9654acf1</v>
+        <v/>
       </c>
       <c r="E47" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W47)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F47" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X47)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -6309,15 +6222,15 @@
       </c>
       <c r="F49" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X49)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>BARUIPUR</v>
+        <v/>
       </c>
       <c r="G49" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X49, Sheet1!$B:$B, 0)), "")</f>
-        <v>b5bfbef5-356c-499b-ad2b-351b7ed6a845</v>
+        <v/>
       </c>
       <c r="H49" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X49)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K49" s="1" t="n">
         <v>12</v>
@@ -6702,15 +6615,15 @@
       </c>
       <c r="F55" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X55)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>HHC</v>
+        <v/>
       </c>
       <c r="G55" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X55, Sheet1!$B:$B, 0)), "")</f>
-        <v>781a30c9-f5db-4af4-ac1d-f279ad2eff80</v>
+        <v/>
       </c>
       <c r="H55" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X55)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K55" s="1" t="n">
         <v>24</v>
@@ -7098,15 +7011,15 @@
       </c>
       <c r="F61" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X61)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>KAMALGAZI</v>
+        <v/>
       </c>
       <c r="G61" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X61, Sheet1!$B:$B, 0)), "")</f>
-        <v>dd61006f-f07c-4a80-b5bf-1588e7ca79b6</v>
+        <v/>
       </c>
       <c r="H61" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X61)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K61" s="1" t="n">
         <v>24</v>
@@ -7631,15 +7544,15 @@
       </c>
       <c r="F69" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X69)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>KAMALGAZI</v>
+        <v/>
       </c>
       <c r="G69" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X69, Sheet1!$B:$B, 0)), "")</f>
-        <v>dd61006f-f07c-4a80-b5bf-1588e7ca79b6</v>
+        <v/>
       </c>
       <c r="H69" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X69)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K69" s="1" t="n">
         <v>48</v>
@@ -7698,15 +7611,15 @@
       </c>
       <c r="F70" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X70)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>MISSION</v>
+        <v/>
       </c>
       <c r="G70" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X70, Sheet1!$B:$B, 0)), "")</f>
-        <v>376e5b44-4294-4b61-a411-2df818899fd0</v>
+        <v/>
       </c>
       <c r="H70" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X70)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K70" s="1" t="n">
         <v>24</v>
@@ -7960,15 +7873,15 @@
       </c>
       <c r="F74" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X74)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>MISSION</v>
+        <v/>
       </c>
       <c r="G74" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X74, Sheet1!$B:$B, 0)), "")</f>
-        <v>376e5b44-4294-4b61-a411-2df818899fd0</v>
+        <v/>
       </c>
       <c r="H74" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X74)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K74" s="1" t="n">
         <v>12</v>
@@ -8088,15 +8001,15 @@
       </c>
       <c r="F76" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X76)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>SONARPUR</v>
+        <v/>
       </c>
       <c r="G76" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X76, Sheet1!$B:$B, 0)), "")</f>
-        <v>2af79bdf-4201-4b16-8d57-fb484e86fac2</v>
+        <v/>
       </c>
       <c r="H76" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X76)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K76" s="1" t="n">
         <v>48</v>
@@ -8155,15 +8068,15 @@
       </c>
       <c r="F77" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X77)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>SONARPUR</v>
+        <v/>
       </c>
       <c r="G77" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X77, Sheet1!$B:$B, 0)), "")</f>
-        <v>2af79bdf-4201-4b16-8d57-fb484e86fac2</v>
+        <v/>
       </c>
       <c r="H77" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X77)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K77" s="1" t="n">
         <v>24</v>
@@ -8222,15 +8135,15 @@
       </c>
       <c r="F78" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X78)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>SONARPUR</v>
+        <v/>
       </c>
       <c r="G78" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X78, Sheet1!$B:$B, 0)), "")</f>
-        <v>2af79bdf-4201-4b16-8d57-fb484e86fac2</v>
+        <v/>
       </c>
       <c r="H78" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X78)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K78" s="1" t="n">
         <v>12</v>
@@ -8344,15 +8257,15 @@
       </c>
       <c r="C80" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W80)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>HHC</v>
+        <v/>
       </c>
       <c r="D80" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W80, Sheet1!$B:$B, 0)), "")</f>
-        <v>781a30c9-f5db-4af4-ac1d-f279ad2eff80</v>
+        <v/>
       </c>
       <c r="E80" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W80)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F80" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X80)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -8411,15 +8324,15 @@
       </c>
       <c r="C81" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W81)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>JADAVPUR</v>
+        <v/>
       </c>
       <c r="D81" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W81, Sheet1!$B:$B, 0)), "")</f>
-        <v>41355205-b6db-4d38-bebf-9f0cf2998f64</v>
+        <v/>
       </c>
       <c r="E81" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W81)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F81" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X81)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -8487,15 +8400,15 @@
       </c>
       <c r="F82" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X82)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>SONARPUR</v>
+        <v/>
       </c>
       <c r="G82" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X82, Sheet1!$B:$B, 0)), "")</f>
-        <v>2af79bdf-4201-4b16-8d57-fb484e86fac2</v>
+        <v/>
       </c>
       <c r="H82" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X82)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K82" s="1" t="n">
         <v>48</v>
@@ -8551,15 +8464,15 @@
       </c>
       <c r="F83" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X83)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>KAMALGAZI</v>
+        <v/>
       </c>
       <c r="G83" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X83, Sheet1!$B:$B, 0)), "")</f>
-        <v>dd61006f-f07c-4a80-b5bf-1588e7ca79b6</v>
+        <v/>
       </c>
       <c r="H83" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X83)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K83" s="1" t="n">
         <v>24</v>
@@ -8737,15 +8650,15 @@
       </c>
       <c r="C86" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W86)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>KAMALGAZI</v>
+        <v/>
       </c>
       <c r="D86" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W86, Sheet1!$B:$B, 0)), "")</f>
-        <v>dd61006f-f07c-4a80-b5bf-1588e7ca79b6</v>
+        <v/>
       </c>
       <c r="E86" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W86)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F86" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X86)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -9206,15 +9119,15 @@
       </c>
       <c r="F93" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X93)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>BARUIPUR</v>
+        <v/>
       </c>
       <c r="G93" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X93, Sheet1!$B:$B, 0)), "")</f>
-        <v>b5bfbef5-356c-499b-ad2b-351b7ed6a845</v>
+        <v/>
       </c>
       <c r="H93" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X93)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K93" s="1" t="n">
         <v>24</v>
@@ -9268,11 +9181,11 @@
       </c>
       <c r="G94" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X94, Sheet1!$B:$B, 0)), "")</f>
-        <v>69b3cd60-ce89-43b4-ac1f-4671fc02d081</v>
+        <v>ebd96b33-8ed2-479d-a8eb-dcdaf9fd31da</v>
       </c>
       <c r="H94" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X94)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v>f45e7454-2b12-4607-886b-f463b56fab98</v>
       </c>
       <c r="K94" s="1" t="n">
         <v>24</v>
@@ -9319,27 +9232,27 @@
       </c>
       <c r="C95" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W95)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>MISSION</v>
+        <v/>
       </c>
       <c r="D95" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W95, Sheet1!$B:$B, 0)), "")</f>
-        <v>376e5b44-4294-4b61-a411-2df818899fd0</v>
+        <v/>
       </c>
       <c r="E95" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W95)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F95" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X95)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>SONARPUR</v>
+        <v/>
       </c>
       <c r="G95" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X95, Sheet1!$B:$B, 0)), "")</f>
-        <v>2af79bdf-4201-4b16-8d57-fb484e86fac2</v>
+        <v/>
       </c>
       <c r="H95" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X95)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K95" s="1" t="n">
         <v>24</v>
@@ -9441,15 +9354,15 @@
       </c>
       <c r="C97" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W97)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>MISSION</v>
+        <v/>
       </c>
       <c r="D97" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W97, Sheet1!$B:$B, 0)), "")</f>
-        <v>376e5b44-4294-4b61-a411-2df818899fd0</v>
+        <v/>
       </c>
       <c r="E97" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W97)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F97" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X97)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -9520,15 +9433,15 @@
       </c>
       <c r="F98" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X98)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>SONARPUR</v>
+        <v/>
       </c>
       <c r="G98" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X98, Sheet1!$B:$B, 0)), "")</f>
-        <v>2af79bdf-4201-4b16-8d57-fb484e86fac2</v>
+        <v/>
       </c>
       <c r="H98" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X98)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K98" s="1" t="n">
         <v>12</v>
@@ -10886,11 +10799,11 @@
       </c>
       <c r="G119" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X119, Sheet1!$B:$B, 0)), "")</f>
-        <v>69b3cd60-ce89-43b4-ac1f-4671fc02d081</v>
+        <v>ebd96b33-8ed2-479d-a8eb-dcdaf9fd31da</v>
       </c>
       <c r="H119" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X119)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v>f45e7454-2b12-4607-886b-f463b56fab98</v>
       </c>
       <c r="K119" s="1" t="n">
         <v>12</v>
@@ -10937,15 +10850,15 @@
       </c>
       <c r="C120" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W120)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>SONARPUR</v>
+        <v/>
       </c>
       <c r="D120" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W120, Sheet1!$B:$B, 0)), "")</f>
-        <v>2af79bdf-4201-4b16-8d57-fb484e86fac2</v>
+        <v/>
       </c>
       <c r="E120" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W120)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F120" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X120)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -11001,15 +10914,15 @@
       </c>
       <c r="C121" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W121)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>SONARPUR</v>
+        <v/>
       </c>
       <c r="D121" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($W121, Sheet1!$B:$B, 0)), "")</f>
-        <v>2af79bdf-4201-4b16-8d57-fb484e86fac2</v>
+        <v/>
       </c>
       <c r="E121" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($W121)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="F121" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X121)), Sheet1!$B:$B, 1, 0), "")</f>
@@ -11339,15 +11252,15 @@
       </c>
       <c r="F126" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X126)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>KAMALGAZI</v>
+        <v/>
       </c>
       <c r="G126" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X126, Sheet1!$B:$B, 0)), "")</f>
-        <v>dd61006f-f07c-4a80-b5bf-1588e7ca79b6</v>
+        <v/>
       </c>
       <c r="H126" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X126)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K126" s="1" t="n">
         <v>12</v>
@@ -11470,15 +11383,15 @@
       </c>
       <c r="F128" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X128)), Sheet1!$B:$B, 1, 0), "")</f>
-        <v>KAMALGAZI</v>
+        <v/>
       </c>
       <c r="G128" s="1" t="str">
         <f aca="false">IFERROR(INDEX(Sheet1!$A:$A, MATCH($X128, Sheet1!$B:$B, 0)), "")</f>
-        <v>dd61006f-f07c-4a80-b5bf-1588e7ca79b6</v>
+        <v/>
       </c>
       <c r="H128" s="1" t="str">
         <f aca="false">IFERROR(VLOOKUP(TRIM(CLEAN($X128)), Sheet1!$B:$C, 2, 0), "")</f>
-        <v>f6cdce1d-fe11-4d40-8866-c509307f6150</v>
+        <v/>
       </c>
       <c r="K128" s="1" t="n">
         <v>12</v>
@@ -11596,10 +11509,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C295"/>
+  <dimension ref="A1:C277"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A200" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B219" activeCellId="0" sqref="B219"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B131" activeCellId="0" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12226,1389 +12139,1389 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="7" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="B59" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="B59" s="8" t="s">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="B60" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="B60" s="10" t="s">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="B61" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="B61" s="8" t="s">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="B62" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="B62" s="10" t="s">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="B63" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B63" s="8" t="s">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="B64" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="B64" s="10" t="s">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="B65" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="B65" s="8" t="s">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="B66" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="B66" s="10" t="s">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="B67" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="B67" s="8" t="s">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="B68" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="B68" s="10" t="s">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="B69" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="B69" s="8" t="s">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="B70" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="B70" s="10" t="s">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="B71" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="B71" s="8" t="s">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="B72" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="B72" s="10" t="s">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="B73" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="C73" s="8" t="s">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="C75" s="8" t="s">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7" t="s">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9" t="s">
+      <c r="C80" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B81" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7" t="s">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B82" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9" t="s">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B83" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="B84" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="s">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="C83" s="8" t="s">
+      <c r="B85" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="C85" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9" t="s">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="C84" s="10" t="s">
+      <c r="B86" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7" t="s">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="C85" s="8" t="s">
+      <c r="B87" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="9" t="s">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B88" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C88" s="8" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7" t="s">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="C87" s="8" t="s">
+      <c r="B89" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C89" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="9" t="s">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="C88" s="10" t="s">
+      <c r="B90" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7" t="s">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="C89" s="8" t="s">
+      <c r="B91" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C91" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9" t="s">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="C90" s="10" t="s">
+      <c r="B92" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="s">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="C91" s="8" t="s">
+      <c r="B93" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C93" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="9" t="s">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B94" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7" t="s">
+      <c r="C94" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B95" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9" t="s">
+      <c r="C95" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C96" s="10" t="s">
+      <c r="B96" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B98" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C98" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C124" s="8" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="C100" s="10" t="s">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C169" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="C101" s="8" t="s">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C170" s="8" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="B110" s="10" t="s">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="C172" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="C110" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="B116" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C131" s="8" t="s">
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C173" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="C140" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="C142" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="B144" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="C152" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>617</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="C159" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="B162" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="C162" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="B164" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>642</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>650</v>
-      </c>
-      <c r="C170" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="B172" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="C172" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="7" t="s">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B174" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="C173" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="9" t="s">
+      <c r="B175" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B176" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="C174" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="7" t="s">
+      <c r="B177" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="C177" s="10" t="s">
         <v>660</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="B176" s="10" t="s">
-        <v>662</v>
-      </c>
-      <c r="C176" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="C177" s="8" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="9" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>477</v>
+        <v>662</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>477</v>
+        <v>664</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="9" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>477</v>
+        <v>666</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="B181" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="B181" s="8" t="s">
-        <v>669</v>
-      </c>
       <c r="C181" s="8" t="s">
-        <v>543</v>
+        <v>357</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B182" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="B182" s="10" t="s">
-        <v>477</v>
-      </c>
       <c r="C182" s="10" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13616,150 +13529,150 @@
         <v>671</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>477</v>
+        <v>672</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>477</v>
+        <v>674</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>477</v>
+        <v>676</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="9" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B186" s="10" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>676</v>
+        <v>357</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>441</v>
+        <v>357</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="9" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B188" s="10" t="s">
-        <v>567</v>
+        <v>682</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>441</v>
+        <v>357</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>342</v>
+        <v>684</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>441</v>
+        <v>357</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="9" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B190" s="10" t="s">
-        <v>346</v>
+        <v>686</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>441</v>
+        <v>357</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>346</v>
+        <v>688</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>441</v>
+        <v>357</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="9" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="B192" s="10" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>441</v>
+        <v>330</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>441</v>
+        <v>330</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="9" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B194" s="10" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>441</v>
+        <v>330</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>519</v>
+        <v>696</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>441</v>
+        <v>330</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="9" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="C196" s="10" t="s">
         <v>330</v>
@@ -13767,230 +13680,230 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="9" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="7" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="9" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="9" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="9" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="9" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="9" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="9" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="B210" s="10" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>330</v>
+        <v>401</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>330</v>
+        <v>401</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="9" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>330</v>
+        <v>401</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="7" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>330</v>
+        <v>401</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="9" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="B214" s="10" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>330</v>
+        <v>401</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="C215" s="8" t="s">
-        <v>330</v>
+        <v>401</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="9" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="B216" s="10" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>330</v>
+        <v>401</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="7" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>401</v>
@@ -13998,10 +13911,10 @@
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="9" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="B218" s="10" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="C218" s="10" t="s">
         <v>401</v>
@@ -14009,10 +13922,10 @@
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>401</v>
@@ -14020,10 +13933,10 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="9" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="C220" s="10" t="s">
         <v>401</v>
@@ -14031,10 +13944,10 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>401</v>
@@ -14042,10 +13955,10 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="9" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="B222" s="10" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="C222" s="10" t="s">
         <v>401</v>
@@ -14053,10 +13966,10 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>401</v>
@@ -14064,10 +13977,10 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="9" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="B224" s="10" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="C224" s="10" t="s">
         <v>401</v>
@@ -14075,10 +13988,10 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>401</v>
@@ -14086,10 +13999,10 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="9" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="B226" s="10" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="C226" s="10" t="s">
         <v>401</v>
@@ -14097,10 +14010,10 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>401</v>
@@ -14108,10 +14021,10 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="9" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="B228" s="10" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="C228" s="10" t="s">
         <v>401</v>
@@ -14119,10 +14032,10 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="7" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>401</v>
@@ -14130,10 +14043,10 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="9" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="B230" s="10" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="C230" s="10" t="s">
         <v>401</v>
@@ -14141,10 +14054,10 @@
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>401</v>
@@ -14152,10 +14065,10 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="9" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="C232" s="10" t="s">
         <v>401</v>
@@ -14163,10 +14076,10 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>401</v>
@@ -14174,10 +14087,10 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="9" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="C234" s="10" t="s">
         <v>401</v>
@@ -14185,10 +14098,10 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="7" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>401</v>
@@ -14196,10 +14109,10 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="9" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="C236" s="10" t="s">
         <v>401</v>
@@ -14207,10 +14120,10 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="7" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>401</v>
@@ -14218,10 +14131,10 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="9" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="C238" s="10" t="s">
         <v>401</v>
@@ -14229,10 +14142,10 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="C239" s="8" t="s">
         <v>401</v>
@@ -14240,10 +14153,10 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="9" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="C240" s="10" t="s">
         <v>401</v>
@@ -14251,10 +14164,10 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="C241" s="8" t="s">
         <v>401</v>
@@ -14262,10 +14175,10 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="9" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="C242" s="10" t="s">
         <v>401</v>
@@ -14273,10 +14186,10 @@
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="C243" s="8" t="s">
         <v>401</v>
@@ -14284,10 +14197,10 @@
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="9" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="B244" s="10" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="C244" s="10" t="s">
         <v>401</v>
@@ -14295,10 +14208,10 @@
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="C245" s="8" t="s">
         <v>401</v>
@@ -14306,10 +14219,10 @@
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="9" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="B246" s="10" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="C246" s="10" t="s">
         <v>401</v>
@@ -14317,10 +14230,10 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="7" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="C247" s="8" t="s">
         <v>401</v>
@@ -14328,10 +14241,10 @@
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="9" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="B248" s="10" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="C248" s="10" t="s">
         <v>401</v>
@@ -14339,10 +14252,10 @@
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="C249" s="8" t="s">
         <v>401</v>
@@ -14350,10 +14263,10 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="9" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="B250" s="10" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="C250" s="10" t="s">
         <v>401</v>
@@ -14361,10 +14274,10 @@
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="7" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>801</v>
+        <v>808</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>401</v>
@@ -14372,10 +14285,10 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="9" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="C252" s="10" t="s">
         <v>401</v>
@@ -14383,10 +14296,10 @@
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="7" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>401</v>
@@ -14394,10 +14307,10 @@
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="9" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="B254" s="10" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="C254" s="10" t="s">
         <v>401</v>
@@ -14405,10 +14318,10 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>401</v>
@@ -14416,10 +14329,10 @@
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="9" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="B256" s="10" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="C256" s="10" t="s">
         <v>401</v>
@@ -14427,430 +14340,232 @@
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>401</v>
+        <v>821</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="9" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="B258" s="10" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>401</v>
+        <v>821</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>401</v>
+        <v>821</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="9" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>401</v>
+        <v>821</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="B261" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="C261" s="8" t="s">
         <v>821</v>
-      </c>
-      <c r="C261" s="8" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="9" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="B262" s="10" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>401</v>
+        <v>821</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>401</v>
+        <v>821</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="9" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="B264" s="10" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>401</v>
+        <v>821</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="7" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>401</v>
+        <v>821</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="9" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>401</v>
+        <v>821</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>401</v>
+        <v>821</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="9" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="B268" s="10" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>401</v>
+        <v>821</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>401</v>
+        <v>821</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="9" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="B270" s="10" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>401</v>
+        <v>821</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>401</v>
+        <v>821</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="9" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="B272" s="10" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>401</v>
+        <v>821</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="7" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="C273" s="8" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="C274" s="12" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="B274" s="10" t="s">
-        <v>847</v>
-      </c>
-      <c r="C274" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="7" t="s">
-        <v>848</v>
-      </c>
-      <c r="B275" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="C275" s="8" t="s">
-        <v>850</v>
+      <c r="A275" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="9" t="s">
-        <v>851</v>
-      </c>
-      <c r="B276" s="10" t="s">
-        <v>852</v>
-      </c>
-      <c r="C276" s="10" t="s">
-        <v>850</v>
+      <c r="A276" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="7" t="s">
-        <v>853</v>
-      </c>
-      <c r="B277" s="8" t="s">
-        <v>854</v>
-      </c>
-      <c r="C277" s="8" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="9" t="s">
-        <v>855</v>
-      </c>
-      <c r="B278" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="C278" s="10" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="B279" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="C279" s="8" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="9" t="s">
-        <v>859</v>
-      </c>
-      <c r="B280" s="10" t="s">
+      <c r="A277" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="C280" s="10" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="7" t="s">
+      <c r="B277" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="B281" s="8" t="s">
-        <v>862</v>
-      </c>
-      <c r="C281" s="8" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="9" t="s">
-        <v>863</v>
-      </c>
-      <c r="B282" s="10" t="s">
-        <v>864</v>
-      </c>
-      <c r="C282" s="10" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="7" t="s">
-        <v>865</v>
-      </c>
-      <c r="B283" s="8" t="s">
-        <v>866</v>
-      </c>
-      <c r="C283" s="8" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="9" t="s">
-        <v>867</v>
-      </c>
-      <c r="B284" s="10" t="s">
-        <v>868</v>
-      </c>
-      <c r="C284" s="10" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="7" t="s">
-        <v>869</v>
-      </c>
-      <c r="B285" s="8" t="s">
-        <v>870</v>
-      </c>
-      <c r="C285" s="8" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="9" t="s">
-        <v>871</v>
-      </c>
-      <c r="B286" s="10" t="s">
-        <v>872</v>
-      </c>
-      <c r="C286" s="10" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="7" t="s">
-        <v>873</v>
-      </c>
-      <c r="B287" s="8" t="s">
-        <v>874</v>
-      </c>
-      <c r="C287" s="8" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="B288" s="10" t="s">
-        <v>876</v>
-      </c>
-      <c r="C288" s="10" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="B289" s="8" t="s">
-        <v>878</v>
-      </c>
-      <c r="C289" s="8" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="9" t="s">
-        <v>879</v>
-      </c>
-      <c r="B290" s="10" t="s">
-        <v>880</v>
-      </c>
-      <c r="C290" s="10" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="7" t="s">
-        <v>881</v>
-      </c>
-      <c r="B291" s="8" t="s">
-        <v>882</v>
-      </c>
-      <c r="C291" s="8" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="11" t="s">
-        <v>883</v>
-      </c>
-      <c r="B292" s="12" t="s">
-        <v>884</v>
-      </c>
-      <c r="C292" s="12" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="C295" s="1" t="s">
+      <c r="C277" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/data/19-08-2025-ofc_cables-export.xlsx
+++ b/data/19-08-2025-ofc_cables-export.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="480">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t xml:space="preserve">2a5c8bd0-327a-4ef7-8a46-bdcbef37651a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aea6a03e-cf73-45a4-99e1-317f8f4cfc84</t>
   </si>
   <si>
     <t xml:space="preserve">990500621129-0</t>
@@ -1504,6 +1507,7 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1863,9 +1867,9 @@
   <dimension ref="A1:P128"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F107" activeCellId="0" sqref="F107"/>
+      <selection pane="bottomLeft" activeCell="F105" activeCellId="0" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1883,7 +1887,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="1" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16377" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16377" style="1" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2926,8 +2930,11 @@
       <c r="E25" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="G25" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J25" s="1" t="n">
         <v>1.48</v>
@@ -2947,22 +2954,25 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="G26" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>235481</v>
@@ -2977,7 +2987,7 @@
         <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M26" s="8" t="n">
         <f aca="false">FALSE()</f>
@@ -2992,16 +3002,16 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>12</v>
@@ -3022,7 +3032,7 @@
         <v>21</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>22</v>
@@ -3036,22 +3046,25 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F28" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H28" s="1" t="n">
         <v>198597</v>
@@ -3066,7 +3079,7 @@
         <v>21</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>22</v>
@@ -3080,20 +3093,23 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F29" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="H29" s="1" t="n">
         <v>244603</v>
       </c>
@@ -3118,16 +3134,16 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>24</v>
@@ -3159,16 +3175,16 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>24</v>
@@ -3203,16 +3219,16 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>24</v>
@@ -3247,20 +3263,23 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F33" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="H33" s="1" t="n">
         <v>246339</v>
       </c>
@@ -3285,22 +3304,22 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>48</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>244598</v>
@@ -3326,16 +3345,16 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>24</v>
@@ -3367,16 +3386,16 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>24</v>
@@ -3408,16 +3427,16 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>12</v>
@@ -3446,13 +3465,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>43</v>
@@ -3461,7 +3480,7 @@
         <v>48</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H38" s="1" t="n">
         <v>153837</v>
@@ -3476,7 +3495,7 @@
         <v>21</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>22</v>
@@ -3490,13 +3509,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>43</v>
@@ -3520,7 +3539,7 @@
         <v>21</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>22</v>
@@ -3534,22 +3553,22 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>48</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H40" s="1" t="n">
         <v>173515</v>
@@ -3578,16 +3597,16 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>24</v>
@@ -3622,16 +3641,16 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>24</v>
@@ -3666,22 +3685,22 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>48</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>223146</v>
@@ -3696,7 +3715,7 @@
         <v>21</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M43" s="5" t="s">
         <v>22</v>
@@ -3710,16 +3729,16 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>24</v>
@@ -3745,16 +3764,16 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>24</v>
@@ -3763,7 +3782,7 @@
         <v>20</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J45" s="1" t="n">
         <v>0.1</v>
@@ -3783,16 +3802,16 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E46" s="1" t="n">
         <v>24</v>
@@ -3827,16 +3846,16 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E47" s="1" t="n">
         <v>24</v>
@@ -3868,13 +3887,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>53</v>
@@ -3898,7 +3917,7 @@
         <v>21</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>22</v>
@@ -3912,16 +3931,16 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E49" s="1" t="n">
         <v>12</v>
@@ -3942,7 +3961,7 @@
         <v>21</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>22</v>
@@ -3956,16 +3975,16 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E50" s="1" t="n">
         <v>24</v>
@@ -3986,7 +4005,7 @@
         <v>21</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M50" s="5" t="s">
         <v>22</v>
@@ -4000,16 +4019,16 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E51" s="1" t="n">
         <v>24</v>
@@ -4041,16 +4060,16 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E52" s="1" t="n">
         <v>24</v>
@@ -4059,7 +4078,7 @@
         <v>20</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>244716</v>
@@ -4085,16 +4104,16 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E53" s="1" t="n">
         <v>24</v>
@@ -4123,16 +4142,16 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E54" s="1" t="n">
         <v>24</v>
@@ -4167,16 +4186,16 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>24</v>
@@ -4208,16 +4227,16 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E56" s="1" t="n">
         <v>24</v>
@@ -4252,16 +4271,16 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E57" s="1" t="n">
         <v>12</v>
@@ -4282,7 +4301,7 @@
         <v>21</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>22</v>
@@ -4296,16 +4315,16 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E58" s="1" t="n">
         <v>24</v>
@@ -4314,7 +4333,7 @@
         <v>20</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H58" s="1" t="n">
         <v>244449</v>
@@ -4340,16 +4359,16 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="E59" s="1" t="n">
         <v>24</v>
@@ -4381,16 +4400,16 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E60" s="1" t="n">
         <v>24</v>
@@ -4425,13 +4444,13 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>43</v>
@@ -4469,16 +4488,16 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E62" s="1" t="n">
         <v>24</v>
@@ -4507,13 +4526,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>60</v>
@@ -4551,22 +4570,25 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E64" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F64" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="G64" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H64" s="1" t="n">
         <v>198620</v>
@@ -4581,7 +4603,7 @@
         <v>21</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M64" s="5" t="s">
         <v>22</v>
@@ -4595,16 +4617,16 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E65" s="1" t="n">
         <v>24</v>
@@ -4625,7 +4647,7 @@
         <v>21</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M65" s="5" t="s">
         <v>22</v>
@@ -4639,13 +4661,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>112</v>
@@ -4669,7 +4691,7 @@
         <v>21</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M66" s="5" t="s">
         <v>22</v>
@@ -4683,22 +4705,22 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>48</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H67" s="1" t="n">
         <v>173955</v>
@@ -4713,7 +4735,7 @@
         <v>21</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M67" s="5" t="s">
         <v>22</v>
@@ -4727,22 +4749,22 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E68" s="1" t="n">
         <v>48</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H68" s="1" t="n">
         <v>154977</v>
@@ -4771,16 +4793,16 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E69" s="1" t="n">
         <v>24</v>
@@ -4815,10 +4837,10 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>43</v>
@@ -4845,7 +4867,7 @@
         <v>21</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M70" s="5" t="s">
         <v>22</v>
@@ -4859,10 +4881,10 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>43</v>
@@ -4874,7 +4896,7 @@
         <v>48</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H71" s="1" t="n">
         <v>173955</v>
@@ -4897,10 +4919,10 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>43</v>
@@ -4927,7 +4949,7 @@
         <v>21</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M72" s="5" t="s">
         <v>22</v>
@@ -4941,16 +4963,16 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E73" s="1" t="n">
         <v>12</v>
@@ -4982,22 +5004,22 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E74" s="1" t="n">
         <v>48</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H74" s="1" t="n">
         <v>244529</v>
@@ -5023,10 +5045,10 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>43</v>
@@ -5038,7 +5060,7 @@
         <v>48</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H75" s="1" t="n">
         <v>174472</v>
@@ -5053,7 +5075,7 @@
         <v>21</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M75" s="5" t="s">
         <v>22</v>
@@ -5067,10 +5089,10 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>43</v>
@@ -5111,10 +5133,10 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>43</v>
@@ -5155,10 +5177,10 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>43</v>
@@ -5199,16 +5221,16 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E79" s="1" t="n">
         <v>24</v>
@@ -5243,16 +5265,16 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E80" s="1" t="n">
         <v>24</v>
@@ -5284,10 +5306,10 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>43</v>
@@ -5299,7 +5321,7 @@
         <v>48</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H81" s="1" t="n">
         <v>174472</v>
@@ -5311,7 +5333,7 @@
         <v>21</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M81" s="5" t="s">
         <v>22</v>
@@ -5325,16 +5347,16 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E82" s="1" t="n">
         <v>24</v>
@@ -5369,16 +5391,16 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E83" s="1" t="n">
         <v>12</v>
@@ -5410,16 +5432,16 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E84" s="1" t="n">
         <v>24</v>
@@ -5440,7 +5462,7 @@
         <v>21</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M84" s="5" t="s">
         <v>22</v>
@@ -5454,22 +5476,25 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E85" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F85" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="G85" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H85" s="1" t="n">
         <v>198630</v>
@@ -5484,7 +5509,7 @@
         <v>21</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M85" s="5" t="s">
         <v>22</v>
@@ -5498,16 +5523,16 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E86" s="1" t="n">
         <v>24</v>
@@ -5528,7 +5553,7 @@
         <v>21</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M86" s="5" t="s">
         <v>22</v>
@@ -5542,16 +5567,16 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E87" s="1" t="n">
         <v>24</v>
@@ -5583,16 +5608,16 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E88" s="1" t="n">
         <v>24</v>
@@ -5624,16 +5649,16 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E89" s="1" t="n">
         <v>12</v>
@@ -5665,16 +5690,16 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E90" s="1" t="n">
         <v>12</v>
@@ -5695,7 +5720,7 @@
         <v>21</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M90" s="5" t="s">
         <v>22</v>
@@ -5709,16 +5734,16 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E91" s="1" t="n">
         <v>24</v>
@@ -5747,13 +5772,13 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>53</v>
@@ -5782,13 +5807,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>26</v>
@@ -5826,13 +5851,13 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>34</v>
@@ -5861,16 +5886,16 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E95" s="1" t="n">
         <v>24</v>
@@ -5902,16 +5927,16 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E96" s="1" t="n">
         <v>24</v>
@@ -5946,13 +5971,13 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>34</v>
@@ -5976,7 +6001,7 @@
         <v>21</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M97" s="5" t="s">
         <v>22</v>
@@ -5990,16 +6015,16 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E98" s="1" t="n">
         <v>24</v>
@@ -6025,16 +6050,16 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E99" s="1" t="n">
         <v>24</v>
@@ -6066,16 +6091,16 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E100" s="1" t="n">
         <v>24</v>
@@ -6084,7 +6109,7 @@
         <v>20</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H100" s="1" t="n">
         <v>198078</v>
@@ -6099,7 +6124,7 @@
         <v>21</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M100" s="5" t="s">
         <v>22</v>
@@ -6113,25 +6138,25 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E101" s="1" t="n">
         <v>48</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H101" s="1" t="n">
         <v>157062</v>
@@ -6154,22 +6179,22 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E102" s="1" t="n">
         <v>48</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H102" s="1" t="n">
         <v>230814</v>
@@ -6184,7 +6209,7 @@
         <v>21</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M102" s="5" t="s">
         <v>22</v>
@@ -6198,13 +6223,13 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>87</v>
@@ -6233,16 +6258,16 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E104" s="1" t="n">
         <v>24</v>
@@ -6263,7 +6288,7 @@
         <v>21</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M104" s="5" t="s">
         <v>22</v>
@@ -6277,20 +6302,23 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E105" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F105" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="H105" s="1" t="n">
         <v>255205</v>
       </c>
@@ -6315,16 +6343,16 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E106" s="1" t="n">
         <v>24</v>
@@ -6353,22 +6381,22 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E107" s="1" t="n">
         <v>48</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H107" s="1" t="n">
         <v>255203</v>
@@ -6394,16 +6422,16 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E108" s="1" t="n">
         <v>24</v>
@@ -6424,7 +6452,7 @@
         <v>21</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M108" s="5" t="s">
         <v>22</v>
@@ -6438,16 +6466,16 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E109" s="1" t="n">
         <v>24</v>
@@ -6468,7 +6496,7 @@
         <v>21</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M109" s="5" t="s">
         <v>22</v>
@@ -6482,13 +6510,13 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>43</v>
@@ -6512,7 +6540,7 @@
         <v>21</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M110" s="5" t="s">
         <v>22</v>
@@ -6526,13 +6554,13 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>43</v>
@@ -6556,7 +6584,7 @@
         <v>21</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M111" s="5" t="s">
         <v>22</v>
@@ -6570,16 +6598,16 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E112" s="1" t="n">
         <v>24</v>
@@ -6611,16 +6639,16 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E113" s="1" t="n">
         <v>24</v>
@@ -6652,16 +6680,16 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E114" s="1" t="n">
         <v>24</v>
@@ -6693,16 +6721,16 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E115" s="1" t="n">
         <v>24</v>
@@ -6734,16 +6762,16 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E116" s="1" t="n">
         <v>12</v>
@@ -6764,7 +6792,7 @@
         <v>21</v>
       </c>
       <c r="L116" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M116" s="5" t="s">
         <v>22</v>
@@ -6778,16 +6806,16 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E117" s="1" t="n">
         <v>12</v>
@@ -6808,7 +6836,7 @@
         <v>21</v>
       </c>
       <c r="L117" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M117" s="5" t="s">
         <v>22</v>
@@ -6822,13 +6850,13 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>26</v>
@@ -6852,7 +6880,7 @@
         <v>21</v>
       </c>
       <c r="L118" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M118" s="5" t="s">
         <v>22</v>
@@ -6866,16 +6894,16 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E119" s="1" t="n">
         <v>24</v>
@@ -6907,16 +6935,16 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E120" s="1" t="n">
         <v>24</v>
@@ -6937,7 +6965,7 @@
         <v>21</v>
       </c>
       <c r="L120" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M120" s="5" t="s">
         <v>22</v>
@@ -6951,13 +6979,13 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>34</v>
@@ -6992,16 +7020,16 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E122" s="1" t="n">
         <v>24</v>
@@ -7022,7 +7050,7 @@
         <v>21</v>
       </c>
       <c r="L122" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M122" s="5" t="s">
         <v>22</v>
@@ -7036,16 +7064,16 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E123" s="1" t="n">
         <v>24</v>
@@ -7077,16 +7105,16 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E124" s="1" t="n">
         <v>24</v>
@@ -7118,16 +7146,16 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E125" s="1" t="n">
         <v>12</v>
@@ -7159,16 +7187,16 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="D126" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E126" s="1" t="n">
         <v>24</v>
@@ -7189,7 +7217,7 @@
         <v>21</v>
       </c>
       <c r="L126" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M126" s="5" t="s">
         <v>22</v>
@@ -7203,16 +7231,16 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E127" s="1" t="n">
         <v>12</v>
@@ -7244,13 +7272,13 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>60</v>
@@ -7274,7 +7302,7 @@
         <v>21</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M128" s="5" t="s">
         <v>22</v>
